--- a/2. Suma de enteros base DOS/SD-MTDeterminista2C (EXTRA).xlsx
+++ b/2. Suma de enteros base DOS/SD-MTDeterminista2C (EXTRA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cabez\OneDrive\Documentos\Uni\4º Curso\2º Cuatri\Teoría Avanzada de la Computación\Practicas\Practica 2\Practica_MT_TAC\2. Suma de enteros base DOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\2. Suma de enteros base DOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525BFC1-69C5-4FD1-B765-F6030C0C0FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99D6C3D-0371-4C26-9D24-CB4CFED34154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1569,12 +1569,12 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1602,7 +1602,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
